--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D399DCA1-9CC2-4493-AF61-81C5C1078BD9}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F34C83-A220-4ACA-AEDB-4A5CC05B86EB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +591,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -605,7 +608,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F34C83-A220-4ACA-AEDB-4A5CC05B86EB}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B9B41C-C6F5-4521-8F49-44D8F2A046F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Times</t>
   </si>
@@ -97,6 +97,30 @@
   <si>
     <t>Actual</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sprint 2 Backlog:</t>
+  </si>
+  <si>
+    <t>Design and create thread scheduling algorithm</t>
+  </si>
+  <si>
+    <t>Set character class</t>
+  </si>
+  <si>
+    <t>Create execution model</t>
+  </si>
+  <si>
+    <t>Integrate interpreter into scripts</t>
+  </si>
+  <si>
+    <t>Build AST from scripts on play</t>
+  </si>
+  <si>
+    <t>Connect Lexer and Parser to IDE</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +157,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,12 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +210,2222 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 1 Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B38-4F1B-A0AF-B10D6FD5DCBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B38-4F1B-A0AF-B10D6FD5DCBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="770934927"/>
+        <c:axId val="766652495"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="770934927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766652495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="766652495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770934927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 2 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94DD-4111-AF1C-F49231570031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94DD-4111-AF1C-F49231570031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="803226479"/>
+        <c:axId val="803214831"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="803226479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803214831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="803214831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803226479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B22999E-BD4A-3C4D-6F81-F8784F0483B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EC6890-0562-8683-277F-97174FE63ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,30 +2725,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -608,6 +2866,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
@@ -620,7 +2881,10 @@
         <v>39845</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -631,11 +2895,217 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>40210</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40575</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40940</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41306</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>41671</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42036</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42401</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42767</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43497</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44593</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44958</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B9B41C-C6F5-4521-8F49-44D8F2A046F8}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D99BB7D-D73D-476E-B01E-3974A6934515}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Times</t>
   </si>
@@ -121,12 +121,36 @@
   <si>
     <t>Connect Lexer and Parser to IDE</t>
   </si>
+  <si>
+    <t>Sprint 3 Backlog:</t>
+  </si>
+  <si>
+    <t>Create Character objects in game</t>
+  </si>
+  <si>
+    <t>Play simulation</t>
+  </si>
+  <si>
+    <t>Pause, Stop, and Step Simulation</t>
+  </si>
+  <si>
+    <t>Instruction Cost Visualisation</t>
+  </si>
+  <si>
+    <t>Scheduler Representation</t>
+  </si>
+  <si>
+    <t>Pause Menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +166,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,22 +213,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,13 +282,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sprint</a:t>
+              <a:t>Sprint 1 Burndown Chart</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> 1 Burndown Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -311,7 +341,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -335,31 +365,31 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37288</c:v>
+                  <c:v>44959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37653</c:v>
+                  <c:v>44960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38018</c:v>
+                  <c:v>44961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38384</c:v>
+                  <c:v>44962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38749</c:v>
+                  <c:v>44963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39114</c:v>
+                  <c:v>44964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39479</c:v>
+                  <c:v>44965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39845</c:v>
+                  <c:v>44966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +430,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B38-4F1B-A0AF-B10D6FD5DCBF}"/>
+              <c16:uniqueId val="{00000000-8A93-4A5B-8B58-BBEF0EC86A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -446,31 +476,31 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37288</c:v>
+                  <c:v>44959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37653</c:v>
+                  <c:v>44960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38018</c:v>
+                  <c:v>44961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38384</c:v>
+                  <c:v>44962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38749</c:v>
+                  <c:v>44963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39114</c:v>
+                  <c:v>44964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39479</c:v>
+                  <c:v>44965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39845</c:v>
+                  <c:v>44966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,7 +541,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4B38-4F1B-A0AF-B10D6FD5DCBF}"/>
+              <c16:uniqueId val="{00000001-8A93-4A5B-8B58-BBEF0EC86A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -525,17 +555,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="770934927"/>
-        <c:axId val="766652495"/>
+        <c:axId val="1068277711"/>
+        <c:axId val="1068279791"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="770934927"/>
+        <c:axId val="1068277711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -572,14 +602,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766652495"/>
+        <c:crossAx val="1068279791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="years"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="766652495"/>
+        <c:axId val="1068279791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="770934927"/>
+        <c:crossAx val="1068277711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,8 +679,9 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -754,11 +785,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sprint</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> 2 Burndown Chart</a:t>
+              <a:t>Sprint 2 Burndown Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -841,52 +868,52 @@
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>40210</c:v>
+                  <c:v>44967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40575</c:v>
+                  <c:v>44968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40940</c:v>
+                  <c:v>44969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41306</c:v>
+                  <c:v>44970</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41671</c:v>
+                  <c:v>44971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42036</c:v>
+                  <c:v>44972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42401</c:v>
+                  <c:v>44973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42767</c:v>
+                  <c:v>44974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43132</c:v>
+                  <c:v>44975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43497</c:v>
+                  <c:v>44976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>44977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44228</c:v>
+                  <c:v>44978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44593</c:v>
+                  <c:v>44979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44958</c:v>
+                  <c:v>44980</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45323</c:v>
+                  <c:v>44981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +967,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94DD-4111-AF1C-F49231570031}"/>
+              <c16:uniqueId val="{00000000-301D-4752-A9DD-473D6B04FAF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -994,52 +1021,52 @@
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>40210</c:v>
+                  <c:v>44967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40575</c:v>
+                  <c:v>44968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40940</c:v>
+                  <c:v>44969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41306</c:v>
+                  <c:v>44970</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41671</c:v>
+                  <c:v>44971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42036</c:v>
+                  <c:v>44972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42401</c:v>
+                  <c:v>44973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42767</c:v>
+                  <c:v>44974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43132</c:v>
+                  <c:v>44975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43497</c:v>
+                  <c:v>44976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>44977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44228</c:v>
+                  <c:v>44978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44593</c:v>
+                  <c:v>44979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44958</c:v>
+                  <c:v>44980</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45323</c:v>
+                  <c:v>44981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,13 +1080,43 @@
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94DD-4111-AF1C-F49231570031}"/>
+              <c16:uniqueId val="{00000001-301D-4752-A9DD-473D6B04FAF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1073,17 +1130,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="803226479"/>
-        <c:axId val="803214831"/>
+        <c:axId val="1146378047"/>
+        <c:axId val="1146378463"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="803226479"/>
+        <c:axId val="1146378047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,14 +1177,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803214831"/>
+        <c:crossAx val="1146378463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="years"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="803214831"/>
+        <c:axId val="1146378463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1235,1724 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803226479"/>
+        <c:crossAx val="1146378047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 1 Burndown Plan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EF6-4EC4-A19F-4CCC21D7E0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="649667936"/>
+        <c:axId val="649668352"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="649667936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649668352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="649668352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649667936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2 Burndown Plan</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B623-4247-B80B-90BA6414F073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="663567024"/>
+        <c:axId val="663543312"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="663567024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663543312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="663543312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663567024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 3 Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Plan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2C8-4C06-A4F2-AEEECE9DCB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1399194063"/>
+        <c:axId val="1399175759"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1399194063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399175759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1399175759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399194063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 3 Bundown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9688-44E0-8E50-DF1F817404FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9688-44E0-8E50-DF1F817404FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1407360415"/>
+        <c:axId val="1407355007"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1407360415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407355007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1407355007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407360415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,6 +3119,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2351,27 +4285,2039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387402</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>336625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82602</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B22999E-BD4A-3C4D-6F81-F8784F0483B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E094AC0-7E60-9DF7-DACF-B48B28B61BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,23 +6337,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428384</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123584</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EC6890-0562-8683-277F-97174FE63ECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7E855B-BFB7-AC30-0D84-EA01754908BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,6 +6366,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>564969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>260169</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67295C03-C52F-B037-6F74-6A1AD096EF2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555172</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A3EBE5-C621-F843-622C-46E77DD7B2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CEF389-5986-083A-05F0-811179AE82B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC543B48-52DB-E021-21D7-7D869E6C1529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2725,23 +6815,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -2750,7 +6841,7 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2758,8 +6849,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>37288</v>
+      <c r="B2" s="7">
+        <v>44959</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -2767,7 +6858,7 @@
       <c r="D2">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2775,8 +6866,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>37653</v>
+      <c r="B3" s="7">
+        <v>44960</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2784,7 +6875,7 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2792,8 +6883,8 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>38018</v>
+      <c r="B4" s="7">
+        <v>44961</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2801,7 +6892,7 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2809,8 +6900,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>38384</v>
+      <c r="B5" s="7">
+        <v>44962</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2818,7 +6909,7 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2826,8 +6917,8 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>38749</v>
+      <c r="B6" s="7">
+        <v>44963</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2835,7 +6926,7 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2843,8 +6934,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>39114</v>
+      <c r="B7" s="7">
+        <v>44964</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2852,7 +6943,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2860,8 +6951,8 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>39479</v>
+      <c r="B8" s="7">
+        <v>44965</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2869,7 +6960,7 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2877,8 +6968,8 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
-        <v>39845</v>
+      <c r="B9" s="7">
+        <v>44966</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2886,12 +6977,12 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2908,7 +6999,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2916,8 +7007,8 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
-        <v>40210</v>
+      <c r="B17" s="8">
+        <v>44967</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2925,182 +7016,415 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
-        <v>40575</v>
+      <c r="B18" s="8">
+        <v>44968</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
-        <v>40940</v>
+      <c r="B19" s="8">
+        <v>44969</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
-        <v>41306</v>
+      <c r="B20" s="8">
+        <v>44970</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>41671</v>
+      <c r="B21" s="8">
+        <v>44971</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>42036</v>
+      <c r="B22" s="8">
+        <v>44972</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
-        <v>42401</v>
+      <c r="B23" s="8">
+        <v>44973</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
-        <v>42767</v>
+      <c r="B24" s="8">
+        <v>44974</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
-        <v>43132</v>
+      <c r="B25" s="8">
+        <v>44975</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
-        <v>43497</v>
+      <c r="B26" s="8">
+        <v>44976</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
-        <v>43862</v>
+      <c r="B27" s="8">
+        <v>44977</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
-        <v>44228</v>
+      <c r="B28" s="8">
+        <v>44978</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1">
-        <v>44593</v>
+      <c r="B29" s="8">
+        <v>44979</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1">
-        <v>44958</v>
+      <c r="B30" s="8">
+        <v>44980</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1">
-        <v>45323</v>
+      <c r="B31" s="8">
+        <v>44981</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44982</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44983</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44984</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="10">
+        <v>44985</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>44986</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10">
+        <v>44987</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B40" s="10">
+        <v>44988</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="10">
+        <v>44989</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10">
+        <v>44990</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="10">
+        <v>44991</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="10">
+        <v>44992</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="10">
+        <v>44993</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44994</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>44995</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="10">
+        <v>44996</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D99BB7D-D73D-476E-B01E-3974A6934515}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F17C0A-C343-40ED-A2ED-98AE3AEDCF05}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Times</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>Camera Movement</t>
   </si>
 </sst>
 </file>
@@ -2213,49 +2216,49 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44982</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44983</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44984</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44985</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44988</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44991</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44992</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44993</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,46 +2270,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2618,49 +2621,49 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44982</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44983</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44984</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44985</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44988</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44991</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44992</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44993</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,46 +2675,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2771,49 +2774,49 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44982</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44983</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44984</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44985</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44988</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44991</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44992</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44993</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,7 +2828,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6817,8 +6826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7246,13 +7255,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="10">
-        <v>44982</v>
+        <v>44981</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>29</v>
@@ -7263,12 +7272,15 @@
         <v>3</v>
       </c>
       <c r="B35" s="10">
-        <v>44983</v>
+        <v>44982</v>
       </c>
       <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="G35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7277,9 +7289,12 @@
         <v>4</v>
       </c>
       <c r="B36" s="10">
-        <v>44984</v>
+        <v>44983</v>
       </c>
       <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -7291,10 +7306,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="10">
-        <v>44985</v>
+        <v>44984</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>32</v>
@@ -7305,10 +7320,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="10">
-        <v>44986</v>
+        <v>44985</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>33</v>
@@ -7319,10 +7334,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="10">
-        <v>44987</v>
+        <v>44986</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>34</v>
@@ -7333,10 +7348,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="10">
-        <v>44988</v>
+        <v>44987</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -7344,10 +7362,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="10">
-        <v>44989</v>
+        <v>44988</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -7355,10 +7373,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="10">
-        <v>44990</v>
+        <v>44989</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -7366,10 +7384,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="10">
-        <v>44991</v>
+        <v>44990</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -7377,7 +7395,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="10">
-        <v>44992</v>
+        <v>44991</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -7388,10 +7406,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="10">
-        <v>44993</v>
+        <v>44992</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -7399,7 +7417,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="10">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -7410,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="10">
-        <v>44995</v>
+        <v>44994</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -7421,7 +7439,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="10">
-        <v>44996</v>
+        <v>44995</v>
       </c>
       <c r="C48">
         <v>0</v>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F17C0A-C343-40ED-A2ED-98AE3AEDCF05}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12790F0E-9465-4139-BA52-AA6854EAA655}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2834,6 +2834,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6827,7 +6830,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7311,6 +7314,9 @@
       <c r="C37">
         <v>6</v>
       </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
       <c r="G37" s="9" t="s">
         <v>32</v>
       </c>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12790F0E-9465-4139-BA52-AA6854EAA655}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50FF1E7-0823-4DA4-958E-78BAB196EE20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,6 +1113,18 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2838,6 +2850,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,8 +6853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7202,6 +7226,9 @@
       <c r="C28">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -7213,6 +7240,9 @@
       <c r="C29">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -7224,6 +7254,9 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -7235,6 +7268,9 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -7266,7 +7302,7 @@
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7300,7 +7336,7 @@
       <c r="D36">
         <v>5</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7331,6 +7367,9 @@
       <c r="C38">
         <v>5</v>
       </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
       <c r="G38" s="9" t="s">
         <v>33</v>
       </c>
@@ -7345,7 +7384,10 @@
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7359,6 +7401,9 @@
       <c r="C40">
         <v>4</v>
       </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>35</v>
       </c>
@@ -7372,6 +7417,9 @@
       </c>
       <c r="C41">
         <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50FF1E7-0823-4DA4-958E-78BAB196EE20}"/>
+  <xr:revisionPtr revIDLastSave="733" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F1F39B-7B82-4A0B-877D-069936656985}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown" sheetId="1" r:id="rId1"/>
+    <sheet name="SchedulerAnalysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Times</t>
   </si>
@@ -145,6 +146,51 @@
   <si>
     <t>Camera Movement</t>
   </si>
+  <si>
+    <t>Average Wait Time</t>
+  </si>
+  <si>
+    <t>NumCores</t>
+  </si>
+  <si>
+    <t>NumCharacters</t>
+  </si>
+  <si>
+    <t>MinQueueTime</t>
+  </si>
+  <si>
+    <t>MaxQueueTime</t>
+  </si>
+  <si>
+    <t>For all tests, the values not being tested will take their default value</t>
+  </si>
+  <si>
+    <t>Default: 5</t>
+  </si>
+  <si>
+    <t>Default: 15</t>
+  </si>
+  <si>
+    <t>Default: 3</t>
+  </si>
+  <si>
+    <t>Default: 6</t>
+  </si>
+  <si>
+    <t>Average Processor Steps</t>
+  </si>
+  <si>
+    <t>Sprint 4 Backlog:</t>
+  </si>
+  <si>
+    <t>Battle functionality</t>
+  </si>
+  <si>
+    <t>Create Skirmish Battle</t>
+  </si>
+  <si>
+    <t>Customise Skirmish Battle</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +226,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -202,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,11 +276,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -230,12 +292,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{640B3161-122F-4FED-9F0C-63646FD20202}"/>
+    <cellStyle name="Style 2" xfId="3" xr:uid="{CBFEE7B7-9056-4746-AA99-75CD1B90553D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,7 +403,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Burndown!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -366,7 +439,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Burndown!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="8"/>
@@ -399,7 +472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Burndown!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -442,7 +515,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Burndown!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -477,7 +550,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Burndown!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="8"/>
@@ -510,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Burndown!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -753,6 +826,1149 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of the Number of Cores on Processor Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$J$3:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.424173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.908162000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6788353999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2098364999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8200006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90699850000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90283150000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5575-42C3-952F-CA35A72E65BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1196100448"/>
+        <c:axId val="1196088384"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>84.115600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.19519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252.3895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.12493999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412.61829999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457.03973000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>457.04047000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5575-42C3-952F-CA35A72E65BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1512206064"/>
+        <c:axId val="1515615104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1196100448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196088384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1196088384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196100448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1515615104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512206064"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1512206064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1515615104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of Number of Characters on Processor Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$M$3:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$N$3:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90000119999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.93425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4360150000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6506743000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3988589999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.79125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.898448999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.70379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.423723000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.807824999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C28-4A39-84A4-D59B8A6884C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1518173536"/>
+        <c:axId val="1518174784"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$M$3:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$O$3:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>457.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456.98349999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457.09467000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.54050000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.65787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.28246999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216.28635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.21531999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.37144000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.65616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.16875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C28-4A39-84A4-D59B8A6884C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1512208144"/>
+        <c:axId val="1512206480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1518173536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518174784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1518174784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518173536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1512206480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512208144"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1512208144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1512206480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -833,7 +2049,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Burndown!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -869,7 +2085,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:f>Burndown!$B$17:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -923,7 +2139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:f>Burndown!$C$17:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -987,7 +2203,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Burndown!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1022,7 +2238,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:f>Burndown!$B$17:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1076,7 +2292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$31</c:f>
+              <c:f>Burndown!$D$17:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1417,7 +2633,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Burndown!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1453,7 +2669,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Burndown!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1486,7 +2702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Burndown!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1783,7 +2999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Burndown!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +3035,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:f>Burndown!$B$17:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1873,7 +3089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:f>Burndown!$C$17:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2187,7 +3403,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$33</c:f>
+              <c:f>Burndown!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2223,7 +3439,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:f>Burndown!$B$34:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2269,15 +3485,12 @@
                 <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$C$48</c:f>
+              <c:f>Burndown!$C$34:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2322,9 +3535,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +3802,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$33</c:f>
+              <c:f>Burndown!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2628,7 +3838,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:f>Burndown!$B$34:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2674,15 +3884,12 @@
                 <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$C$48</c:f>
+              <c:f>Burndown!$C$34:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2727,9 +3934,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,7 +3950,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$33</c:f>
+              <c:f>Burndown!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2781,7 +3985,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$48</c:f>
+              <c:f>Burndown!$B$34:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2827,15 +4031,12 @@
                 <c:pt idx="13">
                   <c:v>44994</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$34:$D$48</c:f>
+              <c:f>Burndown!$D$34:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2862,6 +4063,24 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,7 +4294,1665 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 4 Burndown Plan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$52:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$52:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-565D-4055-9192-58F6BD3E97D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="991231824"/>
+        <c:axId val="991230576"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="991231824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991230576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="991230576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991231824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of Minimum Queue Time on Processor Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.065169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.481833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2636656999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6423329999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.000667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3815039999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7471630000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0484939999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3420070000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B003-44F1-93B4-6A257C85F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1196316624"/>
+        <c:axId val="1196320368"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>252.17259000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.18347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252.21384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.27744999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.36784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.43985000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.52632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.59371999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.62239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.78505999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B003-44F1-93B4-6A257C85F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1609881312"/>
+        <c:axId val="1609888384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1196316624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196320368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1196320368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196316624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1609888384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1609881312"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1609881312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1609888384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of Maximum Queue Time on Processor Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3875745974306118E-2"/>
+          <c:y val="1.291793854112736E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.7826675999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1718307000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5130024000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8956689999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2616687000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6101710000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9606605000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3139970000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6245069999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8903300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2603349999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3F6-4384-809A-B76B7708CAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1193815088"/>
+        <c:axId val="1193808432"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>251.56268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.74047999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.83994999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.06460000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.18398999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.25443000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.63681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.81992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.94544999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253.11206000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3F6-4384-809A-B76B7708CAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1633873728"/>
+        <c:axId val="1601814368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193815088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193808432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193808432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193815088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1601814368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633873728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1633873728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1601814368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5354330708661411E-2"/>
+          <c:y val="0.90335593467483233"/>
+          <c:w val="0.91540223097112872"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3315,6 +6192,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3818,8 +6815,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3927,6 +6924,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3937,6 +6939,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3968,6 +6975,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4321,8 +7331,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4430,6 +7440,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4440,6 +7455,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4471,6 +7491,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4824,7 +7847,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5327,7 +8350,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5830,7 +8853,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5980,6 +9003,2547 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6551,6 +12115,191 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E28A75A-8CF7-6D38-7D70-3EA42E3A35A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403859</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA496E48-A3EA-404B-D5E6-4F47F27C3D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>891986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600634</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147F31B9-5703-5E12-41BC-A8F1CBB06E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE5C87A-65A3-F145-CF61-CE8A42113FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58272</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>497542</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D5B526-BF88-6D33-8AD2-F627FA2D8124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6851,10 +12600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7293,7 +13042,7 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>44981</v>
       </c>
       <c r="C34">
@@ -7310,7 +13059,7 @@
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>44982</v>
       </c>
       <c r="C35">
@@ -7327,7 +13076,7 @@
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>44983</v>
       </c>
       <c r="C36">
@@ -7344,7 +13093,7 @@
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>44984</v>
       </c>
       <c r="C37">
@@ -7353,7 +13102,7 @@
       <c r="D37">
         <v>5</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7361,7 +13110,7 @@
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>44985</v>
       </c>
       <c r="C38">
@@ -7370,7 +13119,7 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7378,7 +13127,7 @@
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>44986</v>
       </c>
       <c r="C39">
@@ -7395,7 +13144,7 @@
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>44987</v>
       </c>
       <c r="C40">
@@ -7412,7 +13161,7 @@
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>44988</v>
       </c>
       <c r="C41">
@@ -7426,54 +13175,69 @@
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>44989</v>
       </c>
       <c r="C42">
         <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>44990</v>
       </c>
       <c r="C43">
         <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>44991</v>
       </c>
       <c r="C44">
         <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>44992</v>
       </c>
       <c r="C45">
         <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>44993</v>
       </c>
       <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>1</v>
       </c>
     </row>
@@ -7481,21 +13245,203 @@
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>44994</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B52" s="9">
         <v>44995</v>
       </c>
-      <c r="C48">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>44996</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="9">
+        <v>44997</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="9">
+        <v>44998</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="9">
+        <v>44999</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="9">
+        <v>45000</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9">
+        <v>45001</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="9">
+        <v>45002</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="9">
+        <v>45003</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="9">
+        <v>45004</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="9">
+        <v>45005</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="9">
+        <v>45006</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="9">
+        <v>45007</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="9">
+        <v>45008</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
@@ -7504,4 +13450,549 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE923DF0-72F4-4CFD-9390-85B56C1AF354}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.065169</v>
+      </c>
+      <c r="C3">
+        <v>252.17259000000001</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5.7826675999999999</v>
+      </c>
+      <c r="G3">
+        <v>251.56268</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>12.424173</v>
+      </c>
+      <c r="K3">
+        <v>84.115600000000001</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="O3">
+        <v>457.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.481833</v>
+      </c>
+      <c r="C4">
+        <v>252.18347</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6.1718307000000001</v>
+      </c>
+      <c r="G4">
+        <v>251.74047999999999</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>11.908162000000001</v>
+      </c>
+      <c r="K4">
+        <v>168.19519</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="O4">
+        <v>456.98349999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.8860000000000001</v>
+      </c>
+      <c r="C5">
+        <v>252.21384</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6.5130024000000004</v>
+      </c>
+      <c r="G5">
+        <v>251.83994999999999</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>7.6788353999999996</v>
+      </c>
+      <c r="K5">
+        <v>252.3895</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0.90000119999999995</v>
+      </c>
+      <c r="O5">
+        <v>457.09467000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.2636656999999998</v>
+      </c>
+      <c r="C6">
+        <v>252.27744999999999</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>6.8956689999999998</v>
+      </c>
+      <c r="G6">
+        <v>252.06460000000001</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4.2098364999999998</v>
+      </c>
+      <c r="K6" s="10">
+        <v>336.12493999999998</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2.93425</v>
+      </c>
+      <c r="O6">
+        <v>374.54050000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>7.6423329999999998</v>
+      </c>
+      <c r="C7">
+        <v>252.36784</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10">
+        <v>7.2616687000000004</v>
+      </c>
+      <c r="G7">
+        <v>252.18398999999999</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1.8200006</v>
+      </c>
+      <c r="K7">
+        <v>412.61829999999998</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5.4360150000000003</v>
+      </c>
+      <c r="O7">
+        <v>302.65787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>8.000667</v>
+      </c>
+      <c r="C8">
+        <v>252.43985000000001</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7.6101710000000002</v>
+      </c>
+      <c r="G8">
+        <v>252.25443000000001</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0.90699850000000004</v>
+      </c>
+      <c r="K8">
+        <v>457.03973000000002</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>7.6506743000000004</v>
+      </c>
+      <c r="O8">
+        <v>252.28246999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8.3815039999999996</v>
+      </c>
+      <c r="C9">
+        <v>252.52632</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7.9606605000000004</v>
+      </c>
+      <c r="G9">
+        <v>252.44098</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0.90283150000000001</v>
+      </c>
+      <c r="K9">
+        <v>457.04047000000003</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>9.3988589999999999</v>
+      </c>
+      <c r="O9">
+        <v>216.28635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8.7471630000000005</v>
+      </c>
+      <c r="C10">
+        <v>252.59371999999999</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10">
+        <v>8.3139970000000005</v>
+      </c>
+      <c r="G10">
+        <v>252.63681</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>10.79125</v>
+      </c>
+      <c r="O10">
+        <v>189.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9.0484939999999998</v>
+      </c>
+      <c r="C11">
+        <v>252.62239</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.6245069999999995</v>
+      </c>
+      <c r="G11">
+        <v>252.81992</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>11.898448999999999</v>
+      </c>
+      <c r="O11">
+        <v>168.21531999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>9.3420070000000006</v>
+      </c>
+      <c r="C12">
+        <v>252.78505999999999</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8.8903300000000005</v>
+      </c>
+      <c r="G12">
+        <v>252.94544999999999</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>12.70379</v>
+      </c>
+      <c r="O12">
+        <v>151.37144000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10">
+        <v>9.2603349999999995</v>
+      </c>
+      <c r="G13">
+        <v>253.11206000000001</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>13.423723000000001</v>
+      </c>
+      <c r="O13">
+        <v>137.65616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13.807824999999999</v>
+      </c>
+      <c r="O14">
+        <v>126.16875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F1F39B-7B82-4A0B-877D-069936656985}"/>
+  <xr:revisionPtr revIDLastSave="901" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4AC07-EE3B-4F4E-B5D5-4AB1C358C2A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Times</t>
   </si>
@@ -183,13 +183,31 @@
     <t>Sprint 4 Backlog:</t>
   </si>
   <si>
-    <t>Battle functionality</t>
-  </si>
-  <si>
     <t>Create Skirmish Battle</t>
   </si>
   <si>
     <t>Customise Skirmish Battle</t>
+  </si>
+  <si>
+    <t>Battle Model</t>
+  </si>
+  <si>
+    <t>Rescheduling</t>
+  </si>
+  <si>
+    <t>Message passing</t>
+  </si>
+  <si>
+    <t>Yielding</t>
+  </si>
+  <si>
+    <t>Character Death</t>
+  </si>
+  <si>
+    <t>End Game Victory / Defeat</t>
+  </si>
+  <si>
+    <t>Health Bars</t>
   </si>
 </sst>
 </file>
@@ -299,10 +317,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,6 +845,614 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of Maximum Queue Time on Processor Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3875745974306118E-2"/>
+          <c:y val="1.291793854112736E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.7826675999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1718307000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5130024000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8956689999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2616687000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6101710000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9606605000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3139970000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6245069999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8903300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2603349999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3F6-4384-809A-B76B7708CAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1193815088"/>
+        <c:axId val="1193808432"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>251.56268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.74047999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.83994999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.06460000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.18398999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.25443000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.63681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.81992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.94544999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253.11206000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3F6-4384-809A-B76B7708CAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1633873728"/>
+        <c:axId val="1601814368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193815088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193808432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193808432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193815088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1601814368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633873728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1633873728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1601814368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5354330708661411E-2"/>
+          <c:y val="0.90335593467483233"/>
+          <c:w val="0.91540223097112872"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1367,7 +1993,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3534,7 +4160,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3933,7 +4559,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,40 +5091,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -4688,6 +5314,547 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint 4 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$52:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$52:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29A3-4E6B-9986-4FEF1C02DC2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$52:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$D$52:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29A3-4E6B-9986-4FEF1C02DC2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="129552912"/>
+        <c:axId val="178301920"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="129552912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178301920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="178301920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129552912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5264,614 +6431,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Analysis</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of the Effects of Maximum Queue Time on Processor Performance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3875745974306118E-2"/>
-          <c:y val="1.291793854112736E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SchedulerAnalysis!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Wait Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.7826675999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1718307000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5130024000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8956689999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2616687000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6101710000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.9606605000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3139970000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6245069999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8903300000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.2603349999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3F6-4384-809A-B76B7708CAD5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1193815088"/>
-        <c:axId val="1193808432"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SchedulerAnalysis!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Processor Steps</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$E$3:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>251.56268</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>251.74047999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>251.83994999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252.06460000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>252.18398999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>252.25443000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252.44098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>252.63681</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>252.81992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>252.94544999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>253.11206000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3F6-4384-809A-B76B7708CAD5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1633873728"/>
-        <c:axId val="1601814368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1193815088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1193808432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1193808432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="25400" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1193815088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1601814368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1633873728"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1633873728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1601814368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.5354330708661411E-2"/>
-          <c:y val="0.90335593467483233"/>
-          <c:w val="0.91540223097112872"/>
-          <c:h val="7.8125546806649182E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5953,6 +6512,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7847,8 +8446,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7956,6 +8555,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7966,6 +8570,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7997,6 +8606,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8350,7 +8962,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8853,7 +9465,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9356,7 +9968,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9859,7 +10471,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10362,7 +10974,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10865,8 +11477,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10974,11 +11586,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10989,11 +11596,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11025,9 +11627,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12146,6 +13248,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A215D3A4-9DC5-C86F-359B-D7744C4F1729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12600,10 +13738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12611,9 +13749,10 @@
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="41.88671875" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12630,7 +13769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12647,7 +13786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12663,8 +13802,9 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12680,8 +13820,9 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12697,8 +13838,9 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12714,8 +13856,9 @@
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12731,8 +13874,9 @@
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12748,8 +13892,9 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -12765,13 +13910,30 @@
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="AA10" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -12787,8 +13949,9 @@
       <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12804,8 +13967,9 @@
       <c r="G17" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -12821,8 +13985,9 @@
       <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -12838,8 +14003,9 @@
       <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -12855,8 +14021,9 @@
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -12872,8 +14039,9 @@
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -12889,8 +14057,9 @@
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -12904,8 +14073,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="6"/>
+      <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -12919,8 +14089,9 @@
         <v>1</v>
       </c>
       <c r="G24" s="6"/>
+      <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -12934,8 +14105,9 @@
         <v>1</v>
       </c>
       <c r="G25" s="6"/>
+      <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -12949,8 +14121,9 @@
         <v>1</v>
       </c>
       <c r="G26" s="6"/>
+      <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -12964,8 +14137,9 @@
         <v>0</v>
       </c>
       <c r="G27" s="6"/>
+      <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -12978,8 +14152,9 @@
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -12992,8 +14167,9 @@
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -13006,8 +14182,9 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -13020,8 +14197,12 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="AA31" s="8"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA32" s="8"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -13037,8 +14218,9 @@
       <c r="G33" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -13054,8 +14236,9 @@
       <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -13071,8 +14254,9 @@
       <c r="G35" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -13088,8 +14272,9 @@
       <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
@@ -13105,8 +14290,9 @@
       <c r="G37" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
@@ -13122,8 +14308,9 @@
       <c r="G38" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -13139,8 +14326,9 @@
       <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -13156,8 +14344,9 @@
       <c r="G40" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -13170,8 +14359,9 @@
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -13184,8 +14374,9 @@
       <c r="D42">
         <v>2</v>
       </c>
+      <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -13198,8 +14389,9 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -13212,8 +14404,9 @@
       <c r="D44">
         <v>1</v>
       </c>
+      <c r="AA44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -13226,8 +14419,9 @@
       <c r="D45">
         <v>1</v>
       </c>
+      <c r="AA45" s="8"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -13240,8 +14434,9 @@
       <c r="D46">
         <v>1</v>
       </c>
+      <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -13249,17 +14444,25 @@
         <v>44994</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="AA47" s="8"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="9"/>
+      <c r="AA48" s="8"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA49" s="8"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA50" s="8"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -13275,8 +14478,9 @@
       <c r="G51" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -13284,16 +14488,17 @@
         <v>44995</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="G52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -13301,13 +14506,16 @@
         <v>44996</v>
       </c>
       <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="G53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
@@ -13315,13 +14523,16 @@
         <v>44997</v>
       </c>
       <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="G54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
@@ -13329,11 +14540,16 @@
         <v>44998</v>
       </c>
       <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="G55" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
@@ -13341,11 +14557,13 @@
         <v>44999</v>
       </c>
       <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="G56" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -13353,11 +14571,13 @@
         <v>45000</v>
       </c>
       <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>1</v>
       </c>
@@ -13365,10 +14585,13 @@
         <v>45001</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>2</v>
       </c>
@@ -13376,10 +14599,13 @@
         <v>45002</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>3</v>
       </c>
@@ -13387,10 +14613,13 @@
         <v>45003</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>4</v>
       </c>
@@ -13398,10 +14627,10 @@
         <v>45004</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>5</v>
       </c>
@@ -13409,10 +14638,10 @@
         <v>45005</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>6</v>
       </c>
@@ -13420,10 +14649,10 @@
         <v>45006</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>7</v>
       </c>
@@ -13482,23 +14711,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="901" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4AC07-EE3B-4F4E-B5D5-4AB1C358C2A6}"/>
+  <xr:revisionPtr revIDLastSave="905" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB9CDA5-170A-4B1C-93CA-91BC1E28D4C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5641,6 +5641,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13741,7 +13747,7 @@
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14545,7 +14551,7 @@
       <c r="D55">
         <v>5</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -14559,6 +14565,9 @@
       <c r="C56">
         <v>7</v>
       </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
       <c r="G56" s="14" t="s">
         <v>52</v>
       </c>
@@ -14573,6 +14582,9 @@
       <c r="C57">
         <v>6</v>
       </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
       <c r="G57" s="14" t="s">
         <v>53</v>
       </c>
@@ -14615,7 +14627,7 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="905" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB9CDA5-170A-4B1C-93CA-91BC1E28D4C7}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00DFBDC-84E1-4FA8-B6B0-5D053FC82FC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>Times</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Health Bars</t>
+  </si>
+  <si>
+    <t>Locking</t>
+  </si>
+  <si>
+    <t>Charging</t>
   </si>
 </sst>
 </file>
@@ -5014,6 +5020,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5029,6 +5036,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5091,22 +5099,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -5115,7 +5123,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -5328,31 +5336,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Sprint 4 Burndown Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5407,6 +5390,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5484,22 +5468,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -5508,7 +5492,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -5531,7 +5515,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29A3-4E6B-9986-4FEF1C02DC2A}"/>
+              <c16:uniqueId val="{00000000-A5F2-4351-9950-04FD164E32E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5631,22 +5615,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5654,7 +5653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-29A3-4E6B-9986-4FEF1C02DC2A}"/>
+              <c16:uniqueId val="{00000001-A5F2-4351-9950-04FD164E32E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5668,11 +5667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129552912"/>
-        <c:axId val="178301920"/>
+        <c:axId val="1003459487"/>
+        <c:axId val="1003435359"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="129552912"/>
+        <c:axId val="1003459487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,14 +5714,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178301920"/>
+        <c:crossAx val="1003435359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178301920"/>
+        <c:axId val="1003435359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129552912"/>
+        <c:crossAx val="1003459487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5791,7 +5790,10 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -13262,22 +13264,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>97971</xdr:colOff>
+      <xdr:colOff>32657</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
+      <xdr:colOff>337457</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A215D3A4-9DC5-C86F-359B-D7744C4F1729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4ECB38-BB0A-C8EE-2F7A-18D16D9DFCC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13747,7 +13749,7 @@
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14494,10 +14496,10 @@
         <v>44995</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>48</v>
@@ -14512,10 +14514,10 @@
         <v>44996</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>49</v>
@@ -14529,12 +14531,12 @@
         <v>44997</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="G54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14546,10 +14548,10 @@
         <v>44998</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>51</v>
@@ -14563,12 +14565,12 @@
         <v>44999</v>
       </c>
       <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -14580,13 +14582,13 @@
         <v>45000</v>
       </c>
       <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
       <c r="G57" s="14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
@@ -14599,8 +14601,11 @@
       <c r="C58">
         <v>6</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>54</v>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
@@ -14613,8 +14618,11 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>55</v>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
@@ -14625,10 +14633,13 @@
         <v>45003</v>
       </c>
       <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
@@ -14641,6 +14652,12 @@
       <c r="C61">
         <v>4</v>
       </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
@@ -14651,6 +14668,12 @@
       </c>
       <c r="C62">
         <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1000" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00DFBDC-84E1-4FA8-B6B0-5D053FC82FC3}"/>
+  <xr:revisionPtr revIDLastSave="1013" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57643BAC-E9D6-4277-AB11-358F4F37120D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +300,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -323,7 +317,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,12 +620,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2961,18 +2948,6 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4691,19 +4666,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -5646,6 +5621,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13748,8 +13729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13894,9 +13875,6 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
@@ -13910,9 +13888,6 @@
         <v>44966</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -14157,9 +14132,6 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -14172,9 +14144,6 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
@@ -14187,9 +14156,6 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
@@ -14200,9 +14166,6 @@
         <v>44981</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
         <v>0</v>
       </c>
       <c r="AA31" s="8"/>
@@ -14347,7 +14310,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>35</v>
@@ -14365,7 +14328,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA41" s="8"/>
     </row>
@@ -14380,7 +14343,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA42" s="8"/>
     </row>
@@ -14395,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA43" s="8"/>
     </row>
@@ -14410,7 +14373,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA44" s="8"/>
     </row>
@@ -14587,7 +14550,7 @@
       <c r="D57">
         <v>6</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14604,7 +14567,7 @@
       <c r="D58">
         <v>6</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -14686,6 +14649,9 @@
       <c r="C63">
         <v>2</v>
       </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -14696,6 +14662,9 @@
       </c>
       <c r="C64">
         <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -14746,23 +14715,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>

--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e25a7e6f3dc489/Documents/GitHub/ConcurrentProgrammingGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1013" documentId="10_ncr:40000_{8EF4B8C0-E1E8-45DD-99BE-DA8156BBCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57643BAC-E9D6-4277-AB11-358F4F37120D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{6EC1B9E6-48F4-4CE4-9A3D-7C56A283488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77473D18-B7BD-4C22-9DCA-379ECFC91AF6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>Times</t>
   </si>
@@ -215,6 +215,33 @@
   <si>
     <t>Charging</t>
   </si>
+  <si>
+    <t>Sprint 5 Backlog:</t>
+  </si>
+  <si>
+    <t>Documentation Page</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Visual Effects</t>
+  </si>
+  <si>
+    <t>UI Overhaul</t>
+  </si>
+  <si>
+    <t>Load Scenario</t>
+  </si>
+  <si>
+    <t>Create some Scenarios</t>
+  </si>
+  <si>
+    <t>Campaign Screen</t>
+  </si>
+  <si>
+    <t>Create Playtest Questionnaire</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +333,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -317,6 +350,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,6 +872,1158 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint 5 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$69:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$C$69:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8B5-4000-9B2D-CCC36A1B7E3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$69:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$D$69:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8B5-4000-9B2D-CCC36A1B7E3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69214832"/>
+        <c:axId val="69215248"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="69214832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69215248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="69215248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69214832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of the Effects of Minimum Queue Time on Processor Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.065169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.481833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2636656999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6423329999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.000667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3815039999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7471630000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0484939999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3420070000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B003-44F1-93B4-6A257C85F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1196316624"/>
+        <c:axId val="1196320368"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SchedulerAnalysis!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Processor Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SchedulerAnalysis!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>252.17259000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.18347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252.21384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.27744999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.36784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.43985000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.52632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.59371999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.62239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.78505999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B003-44F1-93B4-6A257C85F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1609881312"/>
+        <c:axId val="1609888384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1196316624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196320368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1196320368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196316624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1609888384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1609881312"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1609881312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1609888384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1445,7 +2631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1986,7 +3172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5877,12 +7063,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Analysis</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprin</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of the Effects of Minimum Queue Time on Processor Performance</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>t 5 Burndown Plan</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5927,11 +7113,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SchedulerAnalysis!$B$2</c:f>
+              <c:f>Burndown!$C$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Wait Time</c:v>
+                  <c:v>Planned</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5941,87 +7127,130 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
+              <c:f>Burndown!$B$69:$B$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>45009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>45010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>45011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>45012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>45013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>45014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>45015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SchedulerAnalysis!$B$3:$B$12</c:f>
+              <c:f>Burndown!$C$69:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.065169</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.481833</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8860000000000001</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2636656999999998</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6423329999999998</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.000667</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3815039999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7471630000000005</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0484939999999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3420070000000006</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6029,7 +7258,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B003-44F1-93B4-6A257C85F320}"/>
+              <c16:uniqueId val="{00000000-731D-4A0D-8E19-5548492E0485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6043,145 +7272,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1196316624"/>
-        <c:axId val="1196320368"/>
+        <c:axId val="208099584"/>
+        <c:axId val="208104576"/>
       </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SchedulerAnalysis!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Processor Steps</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SchedulerAnalysis!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>252.17259000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>252.18347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252.21384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252.27744999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>252.36784</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>252.43985000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252.52632</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>252.59371999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>252.62239</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>252.78505999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B003-44F1-93B4-6A257C85F320}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1609881312"/>
-        <c:axId val="1609888384"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1196316624"/>
+      <c:dateAx>
+        <c:axId val="208099584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6217,15 +7319,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196320368"/>
+        <c:crossAx val="208104576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="1196320368"/>
+        <c:axId val="208104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6251,10 +7352,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6278,72 +7377,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196316624"/>
+        <c:crossAx val="208099584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1609888384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1609881312"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1609881312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1609888384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6352,39 +7389,15 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -6541,6 +7554,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7404,7 +8497,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7512,11 +8605,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7527,11 +8615,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7563,9 +8646,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8951,8 +10031,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9060,6 +10140,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9070,6 +10155,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9101,6 +10191,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9454,8 +10547,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9563,6 +10656,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9573,6 +10671,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9604,6 +10707,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9957,7 +11063,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10460,7 +11566,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10963,7 +12069,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11466,7 +12572,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11969,7 +13075,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12472,8 +13578,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12581,11 +13687,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12596,11 +13697,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12632,9 +13728,1012 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13273,6 +15372,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D27077-C4A9-DE44-64D4-C146D9E5EC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7058C5B-AB01-E597-66D2-7E1F2B750398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13727,10 +15898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14667,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>1</v>
       </c>
@@ -14675,6 +16846,251 @@
         <v>45008</v>
       </c>
       <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="9">
+        <v>45009</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="9">
+        <v>45010</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="9">
+        <v>45011</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="9">
+        <v>45012</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="9">
+        <v>45013</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="9">
+        <v>45014</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="9">
+        <v>45015</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="9">
+        <v>45016</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="9">
+        <v>45017</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="9">
+        <v>45018</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="9">
+        <v>45019</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="9">
+        <v>45020</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="9">
+        <v>45021</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="9">
+        <v>45022</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="9">
+        <v>45023</v>
+      </c>
+      <c r="C83">
         <v>0</v>
       </c>
     </row>
@@ -14715,23 +17131,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
